--- a/medicine/Psychotrope/Rita_Taketsuru/Rita_Taketsuru.xlsx
+++ b/medicine/Psychotrope/Rita_Taketsuru/Rita_Taketsuru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rita Taketsuru (竹鶴リタ, Taketsuru Rita?), née Jessie Roberta « Rita » Cowan le 14 décembre 1896 à Kirkintilloch et morte le 17 janvier 1961 à Yoichi, est la femme de Masataka Taketsuru, le fondateur de la distillerie de whisky japonais Nikka.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle rencontre Masataka Taketsuru par l'intermédiaire de sa sœur Lillian « Ella » Cowan. Après s'être mariés, ils s'installent à Osaka, prévoyant de produire du whisky sur l'archipel japonais. En 1934, Masataka Taketsuru ouvre la distillerie de Yoichi dans la ville de Yoichi dans la sous-préfecture de Shiribeshi. Elle occupe également le poste de professeur d'anglais à l'université Tezukayama Gakuin. Elle réside par la suite à Zushi, près de Tokyo, à cause de problèmes de santé.
 </t>
@@ -542,7 +556,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l'un des personnages de la série télévisée japonaise Massan diffusée par NHK. L'actrice Charlotte Kate Fox joue le rôle de Rita.
 </t>
